--- a/medicine/Mort/Capital_décès_en_France/Capital_décès_en_France.xlsx
+++ b/medicine/Mort/Capital_décès_en_France/Capital_décès_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Capital_d%C3%A9c%C3%A8s_en_France</t>
+          <t>Capital_décès_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le capital décès fixé par le régime général est égal en France à trois mois de salaire. Depuis le 1er janvier 2005, son montant minimum est de 301,92 euros et son montant maximum de 7 548 euros. Ce capital décès est une indemnité qui permet aux proches de faire face aux frais immédiats entraînés par le décès.
 Ce capital est versé en priorité à la personne se trouvant à la charge de l'assuré décédé (bénéficiaire prioritaire) si ses ressources annuelles sont inférieures à 6 613,65 euros. Elle doit en faire la demande dans le mois qui suit le décès.
